--- a/excel_with_subclasses/with_count/district_with_count.xlsx
+++ b/excel_with_subclasses/with_count/district_with_count.xlsx
@@ -385,7 +385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="11">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33">
@@ -1178,12 +1178,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q3539870</t>
+          <t>Q3556789</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>округ Уганды</t>
+          <t>округ Мадагаскара</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1198,12 +1198,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Q3556789</t>
+          <t>Q3539870</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>округ Мадагаскара</t>
+          <t>округ Уганды</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1218,17 +1218,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q4389092</t>
+          <t>Q6593031</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>район Москвы</t>
+          <t>федеральный избирательный округ в Онтарио</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Q15195406_район города в России</t>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1238,17 +1238,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q6593031</t>
+          <t>Q4389092</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>федеральный избирательный округ в Онтарио</t>
+          <t>район Москвы</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
+          <t>Q15195406_район города в России</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1698,17 +1698,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Q1002812</t>
+          <t>Q6619312</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>метропольный боро в Англии</t>
+          <t>federal electoral district in British Columbia</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Q349084_район Англии</t>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1718,17 +1718,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Q6619312</t>
+          <t>Q1002812</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>federal electoral district in British Columbia</t>
+          <t>метропольный боро в Англии</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
+          <t>Q349084_район Англии</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1798,17 +1798,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Q702842</t>
+          <t>Q86732061</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>муниципальный округ Франции</t>
+          <t>School service centre</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1818,17 +1818,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Q86732061</t>
+          <t>Q702842</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>School service centre</t>
+          <t>муниципальный округ Франции</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1898,17 +1898,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Q821435</t>
+          <t>Q1058387</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>округ Берлина</t>
+          <t>провинции Малави</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1918,17 +1918,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Q1058387</t>
+          <t>Q821435</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>провинции Малави</t>
+          <t>округ Берлина</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1958,17 +1958,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Q15634846</t>
+          <t>Q253270</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>район Сеула</t>
+          <t>borough of Munich</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Q15901936_гу</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -1998,17 +1998,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Q1230110</t>
+          <t>Q15634846</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>округа Шри-Ланки</t>
+          <t>район Сеула</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q15901936_гу</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2018,17 +2018,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Q253270</t>
+          <t>Q1230110</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>borough of Munich</t>
+          <t>округа Шри-Ланки</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2038,17 +2038,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Q5034569</t>
+          <t>Q2935973</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>район городского подчинения</t>
+          <t>phytogeographic district</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Q1065118_район городского подчинения КНР</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2058,17 +2058,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Q2935973</t>
+          <t>Q5034569</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>phytogeographic district</t>
+          <t>район городского подчинения</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q1065118_район городского подчинения КНР</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2078,17 +2078,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Q261023</t>
+          <t>Q74728036</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>районы Вены</t>
+          <t>административный округ Праги</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Q17496379_район города в Австрии</t>
+          <t>Q585444_административное деление Праги</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2098,17 +2098,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Q585444</t>
+          <t>Q261023</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>административное деление Праги</t>
+          <t>районы Вены</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q17496379_район города в Австрии</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2118,17 +2118,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Q74728036</t>
+          <t>Q5327704</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>административный округ Праги</t>
+          <t>special ward of Japan</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Q585444_административное деление Праги</t>
+          <t>Q137773_автономный внутригородской район Японии</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2138,17 +2138,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Q5327704</t>
+          <t>Q585444</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>special ward of Japan</t>
+          <t>административное деление Праги</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Q137773_автономный внутригородской район Японии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2198,17 +2198,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Q26907711</t>
+          <t>Q8561193</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>district of the Australian Capital Territory</t>
+          <t>district of Valencia</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2238,17 +2238,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Q8561193</t>
+          <t>Q26907711</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>district of Valencia</t>
+          <t>district of the Australian Capital Territory</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2278,17 +2278,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Q42577368</t>
+          <t>Q12806962</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>intermediate school district of Michigan</t>
+          <t>District of Ljubljana</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Q15726209_school district in the United States</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2298,17 +2298,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Q1852119</t>
+          <t>Q12645496</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>district of Graz</t>
+          <t>Список районов Загреба</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2318,17 +2318,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Q12645496</t>
+          <t>Q42577368</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Список районов Загреба</t>
+          <t>intermediate school district of Michigan</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q15726209_school district in the United States</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2338,17 +2338,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Q15982377</t>
+          <t>Q1852119</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>сельсовет в России</t>
+          <t>district of Graz</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Q27002_сельсовет в СССР</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2358,12 +2358,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Q12806962</t>
+          <t>Q15633191</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>District of Ljubljana</t>
+          <t>distrito</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2378,17 +2378,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Q15633191</t>
+          <t>Q15982377</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>distrito</t>
+          <t>сельсовет в России</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q27002_сельсовет в СССР</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2398,17 +2398,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Q15727673</t>
+          <t>Q15634883</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>городской округ Ганновера</t>
+          <t>округ Манилы</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2418,17 +2418,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Q5283559</t>
+          <t>Q15727673</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>районы ДР Конго</t>
+          <t>городской округ Ганновера</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2438,17 +2438,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Q15634883</t>
+          <t>Q349084</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>округ Манилы</t>
+          <t>район Англии</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q17601336_district of the United Kingdom</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2458,17 +2458,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Q349084</t>
+          <t>Q5283559</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>район Англии</t>
+          <t>районы ДР Конго</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Q17601336_district of the United Kingdom</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2478,17 +2478,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Q702875</t>
+          <t>Q17277366</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Административное деление Марселя</t>
+          <t>former district of the canton of Vaud</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Q702842_муниципальный округ Франции</t>
+          <t>Q17278014_бывший округ Швейцарии</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2498,17 +2498,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Q15063368</t>
+          <t>Q628993</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>federal electoral district in Manitoba</t>
+          <t>district of the canton of Valais</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2538,17 +2538,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Q15063395</t>
+          <t>Q702875</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>federal electoral district in Saskatchewan</t>
+          <t>Административное деление Марселя</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
+          <t>Q702842_муниципальный округ Франции</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2558,17 +2558,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Q628993</t>
+          <t>Q15063395</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>district of the canton of Valais</t>
+          <t>federal electoral district in Saskatchewan</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2578,17 +2578,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Q17277366</t>
+          <t>Q15063368</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>former district of the canton of Vaud</t>
+          <t>federal electoral district in Manitoba</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Q17278014_бывший округ Швейцарии</t>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2598,17 +2598,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Q16997861</t>
+          <t>Q16751551</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>joint technological education district</t>
+          <t>borough of Brescia</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2618,17 +2618,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Q16751551</t>
+          <t>Q16997861</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>borough of Brescia</t>
+          <t>joint technological education district</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2658,17 +2658,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Q16678127</t>
+          <t>Q1808877</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>administrative territorial entity of Anguilla</t>
+          <t>подобщина</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2678,12 +2678,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Q1649296</t>
+          <t>Q16678127</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>округ Суринама</t>
+          <t>administrative territorial entity of Anguilla</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2698,17 +2698,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Q1808877</t>
+          <t>Q22833408</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>подобщина</t>
+          <t>District of the city of Strasbourg, France</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2738,12 +2738,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Q22833408</t>
+          <t>Q1649296</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>District of the city of Strasbourg, France</t>
+          <t>округ Суринама</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2758,17 +2758,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Q2779745</t>
+          <t>Q7438320</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>городской округ в Нидерландах</t>
+          <t>scout district</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2778,17 +2778,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Q2845944</t>
+          <t>Q4057728</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>former arrondissement of Paris</t>
+          <t>Административное деление Еревана</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Q679388_Административное деление Парижа,Q702842_муниципальный округ Франции</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2798,17 +2798,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Q7438320</t>
+          <t>Q2779745</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>scout district</t>
+          <t>городской округ в Нидерландах</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -2818,17 +2818,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Q17364572</t>
+          <t>Q23013985</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>округ Северной Ирландии</t>
+          <t>region of Graubünden</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2838,17 +2838,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Q15063384</t>
+          <t>Q2845944</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>federal electoral district in Nova Scotia</t>
+          <t>former arrondissement of Paris</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
+          <t>Q679388_Административное деление Парижа,Q702842_муниципальный округ Франции</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2858,12 +2858,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Q4057728</t>
+          <t>Q17364572</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Административное деление Еревана</t>
+          <t>округ Северной Ирландии</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2878,17 +2878,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Q23013985</t>
+          <t>Q15063384</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>region of Graubünden</t>
+          <t>federal electoral district in Nova Scotia</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2898,17 +2898,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Q3091916</t>
+          <t>Q5283507</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>district of the canton of Graubünden</t>
+          <t>district of Davao City</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -2918,17 +2918,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Q15644465</t>
+          <t>Q2749147</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>district of the canton of Zürich</t>
+          <t>Castellany</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -2938,12 +2938,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Q3032131</t>
+          <t>Q3091916</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>district of the canton of Solothurn</t>
+          <t>district of the canton of Graubünden</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2958,12 +2958,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Q3032116</t>
+          <t>Q3032131</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>округ кантона Аргау</t>
+          <t>district of the canton of Solothurn</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2978,17 +2978,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Q2749147</t>
+          <t>Q15644465</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Castellany</t>
+          <t>district of the canton of Zürich</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -2998,17 +2998,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Q55791821</t>
+          <t>Q3032116</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>district of Somaliland</t>
+          <t>округ кантона Аргау</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3018,17 +3018,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Q5283507</t>
+          <t>Q55791821</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>district of Davao City</t>
+          <t>district of Somaliland</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -3038,17 +3038,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Q18600372</t>
+          <t>Q3032132</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>borough of Dresden</t>
+          <t>округ кантона Во</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -3058,17 +3058,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Q3032132</t>
+          <t>Q15063373</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>округ кантона Во</t>
+          <t>federal electoral district in New Brunswick</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -3078,17 +3078,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Q3867179</t>
+          <t>Q75339006</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>municipalità of Naples</t>
+          <t>городской округ Праги</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q585444_административное деление Праги</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -3118,17 +3118,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Q75339006</t>
+          <t>Q18600372</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>городской округ Праги</t>
+          <t>borough of Dresden</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Q585444_административное деление Праги</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -3158,17 +3158,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Q15063373</t>
+          <t>Q3867179</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>federal electoral district in New Brunswick</t>
+          <t>municipalità of Naples</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -3178,17 +3178,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Q3927244</t>
+          <t>Q15632133</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>boroughs of Bologna</t>
+          <t>city district of Cologne</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -3198,17 +3198,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Q1620797</t>
+          <t>Q15079751</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>исторический район в США</t>
+          <t>район Амстердама</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Q15243209_исторический район</t>
+          <t>Q2779745_городской округ в Нидерландах</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -3218,17 +3218,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Q40256562</t>
+          <t>Q3927244</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>внутригородской район</t>
+          <t>boroughs of Bologna</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -3238,17 +3238,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Q15632133</t>
+          <t>Q2864107</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>city district of Cologne</t>
+          <t>административный район кантона Берн</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3258,17 +3258,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Q2864107</t>
+          <t>Q40256562</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>административный район кантона Берн</t>
+          <t>внутригородской район</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3278,17 +3278,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Q15079751</t>
+          <t>Q1620797</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>район Амстердама</t>
+          <t>исторический район в США</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Q2779745_городской округ в Нидерландах</t>
+          <t>Q15243209_исторический район</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3318,17 +3318,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Q18545295</t>
+          <t>Q610625</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>district of Incheon</t>
+          <t>Административное деление Милана</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Q15901936_гу</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3338,17 +3338,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Q610625</t>
+          <t>Q17276572</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Административное деление Милана</t>
+          <t>избирательный округ кантон Санкт-Галлен</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3358,12 +3358,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Q17276572</t>
+          <t>Q3032137</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>избирательный округ кантон Санкт-Галлен</t>
+          <t>округ кантона Тичино</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3378,17 +3378,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Q3032137</t>
+          <t>Q18545295</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>округ кантона Тичино</t>
+          <t>district of Incheon</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q15901936_гу</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3398,12 +3398,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Q56205755</t>
+          <t>Q193560</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>district of Rotuma</t>
+          <t>округ Израиля</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3418,17 +3418,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Q96180429</t>
+          <t>Q56205755</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>city district of Langenhagen</t>
+          <t>district of Rotuma</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3438,17 +3438,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Q5811429</t>
+          <t>Q278976</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>distrito in Managua</t>
+          <t>районы и кварталы Гамбурга</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Q15633191_distrito</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3458,17 +3458,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Q278976</t>
+          <t>Q3032122</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>районы и кварталы Гамбурга</t>
+          <t>округ кантон Фрибур</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -3478,17 +3478,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Q193560</t>
+          <t>Q96180429</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>округ Израиля</t>
+          <t>city district of Langenhagen</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3498,17 +3498,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Q15063379</t>
+          <t>Q23925379</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>federal electoral district in Newfoundland and Labrador</t>
+          <t>Prefecture of Arrondissement</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3518,17 +3518,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Q23925379</t>
+          <t>Q15063379</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Prefecture of Arrondissement</t>
+          <t>federal electoral district in Newfoundland and Labrador</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3538,17 +3538,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Q3032122</t>
+          <t>Q5811429</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>округ кантон Фрибур</t>
+          <t>distrito in Managua</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q15633191_distrito</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -3558,17 +3558,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Q59136</t>
+          <t>Q2864207</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>район Республики Кипр</t>
+          <t>constituency of the canton of Lucerne</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3578,17 +3578,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Q17601336</t>
+          <t>Q3032124</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>district of the United Kingdom</t>
+          <t>district of the canton of Schwyz</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3598,17 +3598,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Q3677930</t>
+          <t>Q59136</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>quarter of Messina</t>
+          <t>район Республики Кипр</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -3618,17 +3618,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Q17277998</t>
+          <t>Q3677930</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>district of the canton of Schaffhausen</t>
+          <t>quarter of Messina</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Q17278014_бывший округ Швейцарии</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3638,17 +3638,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Q15921300</t>
+          <t>Q765865</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>sector of Bucharest</t>
+          <t>округ Белиза</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3658,12 +3658,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Q765865</t>
+          <t>Q17601336</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>округ Белиза</t>
+          <t>district of the United Kingdom</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3678,17 +3678,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Q3032126</t>
+          <t>Q15921300</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>district of the canton of Neuchâtel</t>
+          <t>sector of Bucharest</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3698,12 +3698,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Q3032124</t>
+          <t>Q3032126</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>district of the canton of Schwyz</t>
+          <t>district of the canton of Neuchâtel</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3718,17 +3718,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Q2864207</t>
+          <t>Q17277998</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>constituency of the canton of Lucerne</t>
+          <t>district of the canton of Schaffhausen</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q17278014_бывший округ Швейцарии</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3738,17 +3738,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Q3032119</t>
+          <t>Q850649</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>district of the canton of Basel-Land</t>
+          <t>Important Preservation Districts for Groups of Traditional Buildings</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q16141600_Группы традиционных зданий</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3758,17 +3758,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Q17278423</t>
+          <t>Q3032119</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>district of Bremen</t>
+          <t>district of the canton of Basel-Land</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3778,17 +3778,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Q3927247</t>
+          <t>Q3032123</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>borough of Florence</t>
+          <t>округ кантона Люцерн</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q17278014_бывший округ Швейцарии</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3798,17 +3798,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Q3032123</t>
+          <t>Q3927247</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>округ кантона Люцерн</t>
+          <t>borough of Florence</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Q17278014_бывший округ Швейцарии</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -3818,17 +3818,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Q3032133</t>
+          <t>Q17278423</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>district of Canton Thurgau</t>
+          <t>district of Bremen</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3838,17 +3838,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Q30339232</t>
+          <t>Q3032133</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>сектор Кишинёва</t>
+          <t>district of Canton Thurgau</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3858,17 +3858,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Q850649</t>
+          <t>Q3569918</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Important Preservation Districts for Groups of Traditional Buildings</t>
+          <t>special district of Ethiopia</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Q16141600_Группы традиционных зданий</t>
+          <t>Q690840_округ в Эфиопии</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3878,17 +3878,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Q3569918</t>
+          <t>Q30339232</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>special district of Ethiopia</t>
+          <t>сектор Кишинёва</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Q690840_округ в Эфиопии</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3898,17 +3898,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Q3032103</t>
+          <t>Q1045593</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>districts of Colombia</t>
+          <t>Район уездного подчинения</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Q15633191_distrito</t>
+          <t>Q1065118_район городского подчинения КНР</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -3958,17 +3958,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Q854138</t>
+          <t>Q3032103</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Bezirksamt</t>
+          <t>districts of Colombia</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q15633191_distrito</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -3978,17 +3978,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Q1045593</t>
+          <t>Q854138</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Район уездного подчинения</t>
+          <t>Bezirksamt</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Q1065118_район городского подчинения КНР</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -3998,17 +3998,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Q17312348</t>
+          <t>Q81269968</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>former subdistrict of the canton of Ticino</t>
+          <t>city school district</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Q17278014_бывший округ Швейцарии</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -4018,12 +4018,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Q81269968</t>
+          <t>Q81271307</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>city school district</t>
+          <t>local school district</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4038,17 +4038,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Q81271307</t>
+          <t>Q14242187</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>local school district</t>
+          <t>район Нижнего Новгорода</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q15195406_район города в России</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -4078,17 +4078,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Q14242187</t>
+          <t>Q96739262</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>район Нижнего Новгорода</t>
+          <t>district of Almería</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Q15195406_район города в России</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -4118,17 +4118,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Q96739262</t>
+          <t>Q3032139</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>district of Almería</t>
+          <t>district of the canton of Jura</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -4138,17 +4138,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Q3032139</t>
+          <t>Q1840504</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>district of the canton of Jura</t>
+          <t>национальный район</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q27002_сельсовет в СССР</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -4158,17 +4158,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Q1840504</t>
+          <t>Q17312348</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>национальный район</t>
+          <t>former subdistrict of the canton of Ticino</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Q27002_сельсовет в СССР</t>
+          <t>Q17278014_бывший округ Швейцарии</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -4178,17 +4178,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Q1584957</t>
+          <t>Q15207445</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Borough of Palermo</t>
+          <t>fur-trading district</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -4198,17 +4198,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Q3710483</t>
+          <t>Q81268491</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>district of Fiji</t>
+          <t>joint vocational school district</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q81268680_vocational school district</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -4218,17 +4218,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Q4259749</t>
+          <t>Q3710483</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Лесной район (КНР)</t>
+          <t>district of Fiji</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Q2301018_Особый район (КНР)</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -4238,17 +4238,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Q81268491</t>
+          <t>Q2249932</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>joint vocational school district</t>
+          <t>District of Wales</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Q81268680_vocational school district</t>
+          <t>Q17601336_district of the United Kingdom</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -4258,17 +4258,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Q2249932</t>
+          <t>Q3867183</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>District of Wales</t>
+          <t>муниципалитет Венеции</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Q17601336_district of the United Kingdom</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -4278,17 +4278,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Q15207445</t>
+          <t>Q4259749</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>fur-trading district</t>
+          <t>Лесной район (КНР)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q2301018_Особый район (КНР)</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -4298,12 +4298,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Q3867183</t>
+          <t>Q1584957</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>муниципалитет Венеции</t>
+          <t>Borough of Palermo</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4318,12 +4318,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Q16761595</t>
+          <t>Q17137839</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>circoscrizione of Treviso</t>
+          <t>circoscrizione of Verona</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4338,17 +4338,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Q17137839</t>
+          <t>Q63040043</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>circoscrizione of Verona</t>
+          <t>school district of the U.S. Department of Defense</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -4358,17 +4358,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Q10771871</t>
+          <t>Q10267322</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>independent school district</t>
+          <t>state district of Brazil</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -4378,17 +4378,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Q12121054</t>
+          <t>Q627253</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Small rural settlements Ukraine</t>
+          <t>working class quarter</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Q15630906_сельский район</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -4398,12 +4398,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Q63040043</t>
+          <t>Q81270527</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>school district of the U.S. Department of Defense</t>
+          <t>exempted village school district</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4418,12 +4418,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Q81270527</t>
+          <t>Q10771871</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>exempted village school district</t>
+          <t>independent school district</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4438,17 +4438,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Q2301018</t>
+          <t>Q16751788</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Особый район (КНР)</t>
+          <t>circoscrizione of Vicenza</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Q1065118_район городского подчинения КНР</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -4458,17 +4458,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Q627253</t>
+          <t>Q12121054</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>working class quarter</t>
+          <t>Small rural settlements Ukraine</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q15630906_сельский район</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -4478,17 +4478,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Q10267322</t>
+          <t>Q2301018</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>state district of Brazil</t>
+          <t>Особый район (КНР)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q1065118_район городского подчинения КНР</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -4498,12 +4498,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Q16751788</t>
+          <t>Q16761595</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>circoscrizione of Vicenza</t>
+          <t>circoscrizione of Treviso</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4518,17 +4518,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Q706308</t>
+          <t>Q13232238</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Beimen District</t>
+          <t>phytogeographic region of the Czech Republic</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Q705296_район</t>
+          <t>Q2935973_phytogeographic district</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -4538,17 +4538,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Q5773774</t>
+          <t>Q13388283</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Historic overlay district</t>
+          <t>districts of Gilgit-Baltistan</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Q15243209_исторический район</t>
+          <t>Q2379075_округа Пакистана</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -4558,17 +4558,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Q17361228</t>
+          <t>Q1243603</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>forestry district</t>
+          <t>14 округов Рима</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Q1065118_район городского подчинения КНР</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -4578,17 +4578,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Q16141600</t>
+          <t>Q205549</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Группы традиционных зданий</t>
+          <t>Zipserei</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Q15243209_исторический район</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -4598,17 +4598,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Q1243603</t>
+          <t>Q81268680</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>14 округов Рима</t>
+          <t>vocational school district</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -4618,17 +4618,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Q13232238</t>
+          <t>Q7886773</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>phytogeographic region of the Czech Republic</t>
+          <t>union school district</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Q2935973_phytogeographic district</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -4638,17 +4638,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Q7010135</t>
+          <t>Q13439062</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>New Mexico's congressional districts</t>
+          <t>Protected city and villages in Flevoland</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Q505410_Congressional district</t>
+          <t>Q15243227_Q15243227</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -4658,17 +4658,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Q4314954</t>
+          <t>Q5774261</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Национальные районы городского подчинения</t>
+          <t>Historical federal electoral districts of Canada</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Q1065118_район городского подчинения КНР</t>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -4678,17 +4678,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Q13439062</t>
+          <t>Q1410029</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Protected city and villages in Flevoland</t>
+          <t>list of the municipi of Genoa</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Q15243227_Q15243227</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -4698,17 +4698,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Q1410029</t>
+          <t>Q75338598</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>list of the municipi of Genoa</t>
+          <t>городская часть Праги</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q585444_административное деление Праги,Q21851888_район города в Чехии</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -4738,17 +4738,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Q4664382</t>
+          <t>Q16319182</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Abbott district</t>
+          <t>districts of Khyber Pakhtunkhwa</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q2379075_округа Пакистана</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -4758,17 +4758,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Q7432250</t>
+          <t>Q16141600</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>School Districts of Huron County, Ohio</t>
+          <t>Группы традиционных зданий</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q15243209_исторический район</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -4778,17 +4778,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Q81268680</t>
+          <t>Q15873063</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>vocational school district</t>
+          <t>Protected towns and villages in Limburg</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q2584998_охраняемый район в Нидерландах,Q15243227_Q15243227</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -4798,17 +4798,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Q702869</t>
+          <t>Q505410</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Административное деление Лиона</t>
+          <t>Congressional district</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Q702842_муниципальный округ Франции</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -4818,17 +4818,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Q7886773</t>
+          <t>Q679388</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>union school district</t>
+          <t>Административное деление Парижа</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q702842_муниципальный округ Франции</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -4838,17 +4838,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Q505410</t>
+          <t>Q7010135</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Congressional district</t>
+          <t>New Mexico's congressional districts</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q505410_Congressional district</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -4858,17 +4858,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Q679388</t>
+          <t>Q17361228</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Административное деление Парижа</t>
+          <t>forestry district</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Q702842_муниципальный округ Франции</t>
+          <t>Q1065118_район городского подчинения КНР</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -4878,17 +4878,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Q15873063</t>
+          <t>Q702869</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Protected towns and villages in Limburg</t>
+          <t>Административное деление Лиона</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Q2584998_охраняемый район в Нидерландах,Q15243227_Q15243227</t>
+          <t>Q702842_муниципальный округ Франции</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -4898,17 +4898,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Q5774261</t>
+          <t>Q4664382</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Historical federal electoral districts of Canada</t>
+          <t>Abbott district</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -4918,17 +4918,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Q75338598</t>
+          <t>Q7048928</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>городская часть Праги</t>
+          <t>Non-high school district</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Q585444_административное деление Праги,Q21851888_район города в Чехии</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -4938,17 +4938,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Q7048928</t>
+          <t>Q17496379</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Non-high school district</t>
+          <t>район города в Австрии</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -4958,17 +4958,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Q205549</t>
+          <t>Q706308</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Zipserei</t>
+          <t>Beimen District</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q705296_район</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -4978,20 +4978,60 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Q17496379</t>
+          <t>Q5773774</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>район города в Австрии</t>
+          <t>Historic overlay district</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q15243209_исторический район</t>
         </is>
       </c>
       <c r="D230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Q4314954</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Национальные районы городского подчинения</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Q1065118_район городского подчинения КНР</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Q7432250</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>School Districts of Huron County, Ohio</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Q398141_школьный округ</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
         <v>0</v>
       </c>
     </row>
